--- a/data/fuzzythermal/FuzzyTherm_ScoringScale.xlsx
+++ b/data/fuzzythermal/FuzzyTherm_ScoringScale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools_SupportFiles\data\fuzzythermal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55157418-E908-469C-8989-CF0D28FBF6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99091A9-B6C4-4A37-9D97-6B5477943B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{09B15E89-FBDE-455F-9CA0-BBF9A898CAD9}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="90">
   <si>
     <t>SampleID</t>
   </si>
@@ -767,1903 +767,1597 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G496"/>
+  <dimension ref="A1:B496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="77.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="74.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="13" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="13" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="B1" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B8" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B12" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="B16" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>6</v>
       </c>
-      <c r="F4" s="5">
-        <v>2</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="6">
-        <v>3</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="6">
-        <v>4</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="6">
-        <v>5</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="9">
-        <v>6</v>
-      </c>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32"/>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40"/>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F41"/>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F42"/>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F43"/>
-    </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F44"/>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F45"/>
-    </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F46"/>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F47"/>
-    </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F48"/>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F49"/>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F50"/>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F51"/>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F52"/>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F53"/>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F54"/>
-    </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F55"/>
-    </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F56"/>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F57"/>
-    </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F58"/>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F59"/>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F60"/>
-    </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F61"/>
-    </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F62"/>
-    </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F63"/>
-    </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F64"/>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F65"/>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F66"/>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F67"/>
-    </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F68"/>
-    </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F69"/>
-    </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F70"/>
-    </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F71"/>
-    </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F72"/>
-    </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F73"/>
-    </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F74"/>
-    </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F75"/>
-    </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F76"/>
-    </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F77"/>
-    </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F78"/>
-    </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F79"/>
-    </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F80"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F81"/>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F82"/>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F83"/>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F84"/>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F85"/>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F86"/>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F87"/>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F88"/>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F89"/>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F90"/>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F91"/>
-    </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F92"/>
-    </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F93"/>
-    </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F94"/>
-    </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F95"/>
-    </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F96"/>
-    </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F97"/>
-    </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F98"/>
-    </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F99"/>
-    </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F100"/>
-    </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F101"/>
-    </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F102"/>
-    </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F103"/>
-    </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F104"/>
-    </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F105"/>
-    </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F106"/>
-    </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F107"/>
-    </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F108"/>
-    </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F109"/>
-    </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F110"/>
-    </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F111"/>
-    </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F112"/>
-    </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F113"/>
-    </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F114"/>
-    </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F115"/>
-    </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F116"/>
-    </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F117"/>
-    </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F118"/>
-    </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F119"/>
-    </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F120"/>
-    </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F121"/>
-    </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F122"/>
-    </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F123"/>
-    </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F124"/>
-    </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F125"/>
-    </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F126"/>
-    </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F127"/>
-    </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F128"/>
-    </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F129"/>
-    </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F130"/>
-    </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F131"/>
-    </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F132"/>
-    </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F133"/>
-    </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F134"/>
-    </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F135"/>
-    </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F136"/>
-    </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F137"/>
-    </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F138"/>
-    </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F139"/>
-    </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F140"/>
-    </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F141"/>
-    </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F142"/>
-    </row>
-    <row r="143" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F143"/>
-    </row>
-    <row r="144" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F144"/>
-    </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F145"/>
-    </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F146"/>
-    </row>
-    <row r="147" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F147"/>
-    </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F148"/>
-    </row>
-    <row r="149" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F149"/>
-    </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F150"/>
-    </row>
-    <row r="151" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F151"/>
-    </row>
-    <row r="152" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F152"/>
-    </row>
-    <row r="153" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F153"/>
-    </row>
-    <row r="154" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F154"/>
-    </row>
-    <row r="155" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F155"/>
-    </row>
-    <row r="156" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F156"/>
-    </row>
-    <row r="157" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F157"/>
-    </row>
-    <row r="158" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F158"/>
-    </row>
-    <row r="159" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F159"/>
-    </row>
-    <row r="160" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F160"/>
-    </row>
-    <row r="161" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F161"/>
-    </row>
-    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F162"/>
-    </row>
-    <row r="163" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F163"/>
-    </row>
-    <row r="164" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F164"/>
-    </row>
-    <row r="165" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F165"/>
-    </row>
-    <row r="166" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F166"/>
-    </row>
-    <row r="167" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F167"/>
-    </row>
-    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F168"/>
-    </row>
-    <row r="169" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F169"/>
-    </row>
-    <row r="170" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F170"/>
-    </row>
-    <row r="171" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F171"/>
-    </row>
-    <row r="172" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F172"/>
-    </row>
-    <row r="173" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F173"/>
-    </row>
-    <row r="174" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F174"/>
-    </row>
-    <row r="175" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F175"/>
-    </row>
-    <row r="176" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F176"/>
-    </row>
-    <row r="177" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F177"/>
-    </row>
-    <row r="178" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F178"/>
-    </row>
-    <row r="179" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F179"/>
-    </row>
-    <row r="180" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F180"/>
-    </row>
-    <row r="181" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F181"/>
-    </row>
-    <row r="182" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F182"/>
-    </row>
-    <row r="183" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F183"/>
-    </row>
-    <row r="184" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F184"/>
-    </row>
-    <row r="185" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F185"/>
-    </row>
-    <row r="186" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F186"/>
-    </row>
-    <row r="187" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F187"/>
-    </row>
-    <row r="188" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F188"/>
-    </row>
-    <row r="189" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F189"/>
-    </row>
-    <row r="190" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F190"/>
-    </row>
-    <row r="191" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F191"/>
-    </row>
-    <row r="192" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F192"/>
-    </row>
-    <row r="193" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F193"/>
-    </row>
-    <row r="194" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F194"/>
-    </row>
-    <row r="195" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F195"/>
-    </row>
-    <row r="196" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F196"/>
-    </row>
-    <row r="197" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F197"/>
-    </row>
-    <row r="198" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F198"/>
-    </row>
-    <row r="199" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F199"/>
-    </row>
-    <row r="200" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F200"/>
-    </row>
-    <row r="201" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F201"/>
-    </row>
-    <row r="202" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F202"/>
-    </row>
-    <row r="203" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F203"/>
-    </row>
-    <row r="204" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F204"/>
-    </row>
-    <row r="205" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F205"/>
-    </row>
-    <row r="206" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F206"/>
-    </row>
-    <row r="207" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F207"/>
-    </row>
-    <row r="208" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F208"/>
-    </row>
-    <row r="209" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F209"/>
-    </row>
-    <row r="210" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F210"/>
-    </row>
-    <row r="211" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F211"/>
-    </row>
-    <row r="212" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F212"/>
-    </row>
-    <row r="213" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F213"/>
-    </row>
-    <row r="214" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F214"/>
-    </row>
-    <row r="215" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F215"/>
-    </row>
-    <row r="216" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F216"/>
-    </row>
-    <row r="217" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F217"/>
-    </row>
-    <row r="218" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F218"/>
-    </row>
-    <row r="219" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F219"/>
-    </row>
-    <row r="220" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F220"/>
-    </row>
-    <row r="221" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F221"/>
-    </row>
-    <row r="222" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F222"/>
-    </row>
-    <row r="223" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F223"/>
-    </row>
-    <row r="224" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F224"/>
-    </row>
-    <row r="225" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F225"/>
-    </row>
-    <row r="226" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F226"/>
-    </row>
-    <row r="227" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F227"/>
-    </row>
-    <row r="228" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F228"/>
-    </row>
-    <row r="229" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F229"/>
-    </row>
-    <row r="230" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F230"/>
-    </row>
-    <row r="231" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F231"/>
-    </row>
-    <row r="232" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F232"/>
-    </row>
-    <row r="233" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F233"/>
-    </row>
-    <row r="234" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F234"/>
-    </row>
-    <row r="235" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F235"/>
-    </row>
-    <row r="236" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F236"/>
-    </row>
-    <row r="237" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F237"/>
-    </row>
-    <row r="238" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F238"/>
-    </row>
-    <row r="239" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F239"/>
-    </row>
-    <row r="240" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F240"/>
-    </row>
-    <row r="241" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F241"/>
-    </row>
-    <row r="242" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F242"/>
-    </row>
-    <row r="243" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F243"/>
-    </row>
-    <row r="244" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F244"/>
-    </row>
-    <row r="245" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F245"/>
-    </row>
-    <row r="246" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F246"/>
-    </row>
-    <row r="247" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F247"/>
-    </row>
-    <row r="248" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F248"/>
-    </row>
-    <row r="249" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F249"/>
-    </row>
-    <row r="250" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F250"/>
-    </row>
-    <row r="251" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F251"/>
-    </row>
-    <row r="252" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F252"/>
-    </row>
-    <row r="253" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F253"/>
-    </row>
-    <row r="254" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F254"/>
-    </row>
-    <row r="255" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F255"/>
-    </row>
-    <row r="256" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F256"/>
-    </row>
-    <row r="257" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F257"/>
-    </row>
-    <row r="258" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F258"/>
-    </row>
-    <row r="259" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F259"/>
-    </row>
-    <row r="260" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F260"/>
-    </row>
-    <row r="261" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F261"/>
-    </row>
-    <row r="262" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F262"/>
-    </row>
-    <row r="263" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F263"/>
-    </row>
-    <row r="264" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F264"/>
-    </row>
-    <row r="265" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F265"/>
-    </row>
-    <row r="266" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F266"/>
-    </row>
-    <row r="267" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F267"/>
-    </row>
-    <row r="268" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F268"/>
-    </row>
-    <row r="269" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F269"/>
-    </row>
-    <row r="270" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F270"/>
-    </row>
-    <row r="271" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F271"/>
-    </row>
-    <row r="272" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F272"/>
-    </row>
-    <row r="273" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F273"/>
-    </row>
-    <row r="274" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F274"/>
-    </row>
-    <row r="275" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F275"/>
-    </row>
-    <row r="276" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F276"/>
-    </row>
-    <row r="277" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F277"/>
-    </row>
-    <row r="278" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F278"/>
-    </row>
-    <row r="279" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F279"/>
-    </row>
-    <row r="280" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F280"/>
-    </row>
-    <row r="281" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F281"/>
-    </row>
-    <row r="282" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F282"/>
-    </row>
-    <row r="283" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F283"/>
-    </row>
-    <row r="284" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F284"/>
-    </row>
-    <row r="285" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F285"/>
-    </row>
-    <row r="286" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F286"/>
-    </row>
-    <row r="287" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F287"/>
-    </row>
-    <row r="288" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F288"/>
-    </row>
-    <row r="289" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F289"/>
-    </row>
-    <row r="290" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F290"/>
-    </row>
-    <row r="291" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F291"/>
-    </row>
-    <row r="292" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F292"/>
-    </row>
-    <row r="293" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F293"/>
-    </row>
-    <row r="294" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F294"/>
-    </row>
-    <row r="295" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F295"/>
-    </row>
-    <row r="296" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F296"/>
-    </row>
-    <row r="297" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F297"/>
-    </row>
-    <row r="298" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F298"/>
-    </row>
-    <row r="299" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F299"/>
-    </row>
-    <row r="300" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F300"/>
-    </row>
-    <row r="301" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F301"/>
-    </row>
-    <row r="302" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F302"/>
-    </row>
-    <row r="303" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F303"/>
-    </row>
-    <row r="304" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F304"/>
-    </row>
-    <row r="305" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F305"/>
-    </row>
-    <row r="306" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F306"/>
-    </row>
-    <row r="307" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F307"/>
-    </row>
-    <row r="308" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F308"/>
-    </row>
-    <row r="309" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F309"/>
-    </row>
-    <row r="310" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F310"/>
-    </row>
-    <row r="311" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F311"/>
-    </row>
-    <row r="312" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F312"/>
-    </row>
-    <row r="313" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F313"/>
-    </row>
-    <row r="314" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F314"/>
-    </row>
-    <row r="315" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F315"/>
-    </row>
-    <row r="316" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F316"/>
-    </row>
-    <row r="317" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F317"/>
-    </row>
-    <row r="318" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F318"/>
-    </row>
-    <row r="319" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F319"/>
-    </row>
-    <row r="320" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F320"/>
-    </row>
-    <row r="321" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F321"/>
-    </row>
-    <row r="322" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F322"/>
-    </row>
-    <row r="323" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F323"/>
-    </row>
-    <row r="324" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F324"/>
-    </row>
-    <row r="325" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F325"/>
-    </row>
-    <row r="326" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F326"/>
-    </row>
-    <row r="327" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F327"/>
-    </row>
-    <row r="328" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F328"/>
-    </row>
-    <row r="329" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F329"/>
-    </row>
-    <row r="330" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F330"/>
-    </row>
-    <row r="331" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F331"/>
-    </row>
-    <row r="332" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F332"/>
-    </row>
-    <row r="333" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F333"/>
-    </row>
-    <row r="334" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F334"/>
-    </row>
-    <row r="335" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F335"/>
-    </row>
-    <row r="336" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F336"/>
-    </row>
-    <row r="337" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F337"/>
-    </row>
-    <row r="338" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F338"/>
-    </row>
-    <row r="339" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F339"/>
-    </row>
-    <row r="340" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F340"/>
-    </row>
-    <row r="341" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F341"/>
-    </row>
-    <row r="342" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F342"/>
-    </row>
-    <row r="343" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F343"/>
-    </row>
-    <row r="344" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F344"/>
-    </row>
-    <row r="345" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F345"/>
-    </row>
-    <row r="346" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F346"/>
-    </row>
-    <row r="347" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F347"/>
-    </row>
-    <row r="348" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F348"/>
-    </row>
-    <row r="349" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F349"/>
-    </row>
-    <row r="350" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F350"/>
-    </row>
-    <row r="351" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F351"/>
-    </row>
-    <row r="352" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F352"/>
-    </row>
-    <row r="353" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F353"/>
-    </row>
-    <row r="354" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F354"/>
-    </row>
-    <row r="355" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F355"/>
-    </row>
-    <row r="356" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F356"/>
-    </row>
-    <row r="357" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F357"/>
-    </row>
-    <row r="358" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F358"/>
-    </row>
-    <row r="359" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F359"/>
-    </row>
-    <row r="360" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F360"/>
-    </row>
-    <row r="361" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F361"/>
-    </row>
-    <row r="362" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F362"/>
-    </row>
-    <row r="363" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F363"/>
-    </row>
-    <row r="364" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F364"/>
-    </row>
-    <row r="365" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F365"/>
-    </row>
-    <row r="366" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F366"/>
-    </row>
-    <row r="367" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F367"/>
-    </row>
-    <row r="368" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F368"/>
-    </row>
-    <row r="369" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F369"/>
-    </row>
-    <row r="370" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F370"/>
-    </row>
-    <row r="371" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F371"/>
-    </row>
-    <row r="372" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F372"/>
-    </row>
-    <row r="373" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F373"/>
-    </row>
-    <row r="374" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F374"/>
-    </row>
-    <row r="375" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F375"/>
-    </row>
-    <row r="376" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F376"/>
-    </row>
-    <row r="377" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F377"/>
-    </row>
-    <row r="378" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F378"/>
-    </row>
-    <row r="379" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F379"/>
-    </row>
-    <row r="380" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F380"/>
-    </row>
-    <row r="381" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F381"/>
-    </row>
-    <row r="382" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F382"/>
-    </row>
-    <row r="383" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F383"/>
-    </row>
-    <row r="384" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F384"/>
-    </row>
-    <row r="385" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F385"/>
-    </row>
-    <row r="386" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F386"/>
-    </row>
-    <row r="387" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F387"/>
-    </row>
-    <row r="388" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F388"/>
-    </row>
-    <row r="389" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F389"/>
-    </row>
-    <row r="390" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F390"/>
-    </row>
-    <row r="391" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F391"/>
-    </row>
-    <row r="392" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F392"/>
-    </row>
-    <row r="393" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F393"/>
-    </row>
-    <row r="394" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F394"/>
-    </row>
-    <row r="395" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F395"/>
-    </row>
-    <row r="396" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F396"/>
-    </row>
-    <row r="397" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F397"/>
-    </row>
-    <row r="398" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F398"/>
-    </row>
-    <row r="399" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F399"/>
-    </row>
-    <row r="400" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F400"/>
-    </row>
-    <row r="401" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F401"/>
-    </row>
-    <row r="402" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F402"/>
-    </row>
-    <row r="403" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F403"/>
-    </row>
-    <row r="404" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F404"/>
-    </row>
-    <row r="405" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F405"/>
-    </row>
-    <row r="406" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F406"/>
-    </row>
-    <row r="407" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F407"/>
-    </row>
-    <row r="408" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F408"/>
-    </row>
-    <row r="409" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F409"/>
-    </row>
-    <row r="410" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F410"/>
-    </row>
-    <row r="411" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F411"/>
-    </row>
-    <row r="412" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F412"/>
-    </row>
-    <row r="413" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F413"/>
-    </row>
-    <row r="414" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F414"/>
-    </row>
-    <row r="415" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F415"/>
-    </row>
-    <row r="416" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F416"/>
-    </row>
-    <row r="417" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F417"/>
-    </row>
-    <row r="418" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F418"/>
-    </row>
-    <row r="419" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F419"/>
-    </row>
-    <row r="420" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F420"/>
-    </row>
-    <row r="421" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F421"/>
-    </row>
-    <row r="422" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F422"/>
-    </row>
-    <row r="423" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F423"/>
-    </row>
-    <row r="424" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F424"/>
-    </row>
-    <row r="425" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F425"/>
-    </row>
-    <row r="426" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F426"/>
-    </row>
-    <row r="427" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F427"/>
-    </row>
-    <row r="428" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F428"/>
-    </row>
-    <row r="429" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F429"/>
-    </row>
-    <row r="430" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F430"/>
-    </row>
-    <row r="431" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F431"/>
-    </row>
-    <row r="432" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F432"/>
-    </row>
-    <row r="433" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F433"/>
-    </row>
-    <row r="434" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F434"/>
-    </row>
-    <row r="435" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F435"/>
-    </row>
-    <row r="436" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F436"/>
-    </row>
-    <row r="437" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F437"/>
-    </row>
-    <row r="438" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F438"/>
-    </row>
-    <row r="439" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F439"/>
-    </row>
-    <row r="440" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F440"/>
-    </row>
-    <row r="441" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F441"/>
-    </row>
-    <row r="442" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F442"/>
-    </row>
-    <row r="443" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F443"/>
-    </row>
-    <row r="444" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F444"/>
-    </row>
-    <row r="445" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F445"/>
-    </row>
-    <row r="446" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F446"/>
-    </row>
-    <row r="447" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F447"/>
-    </row>
-    <row r="448" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F448"/>
-    </row>
-    <row r="449" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F449"/>
-    </row>
-    <row r="450" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F450"/>
-    </row>
-    <row r="451" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F451"/>
-    </row>
-    <row r="452" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F452"/>
-    </row>
-    <row r="453" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F453"/>
-    </row>
-    <row r="454" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F454"/>
-    </row>
-    <row r="455" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F455"/>
-    </row>
-    <row r="456" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F456"/>
-    </row>
-    <row r="457" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F457"/>
-    </row>
-    <row r="458" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F458"/>
-    </row>
-    <row r="459" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F459"/>
-    </row>
-    <row r="460" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F460"/>
-    </row>
-    <row r="461" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F461"/>
-    </row>
-    <row r="462" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F462"/>
-    </row>
-    <row r="463" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F463"/>
-    </row>
-    <row r="464" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F464"/>
-    </row>
-    <row r="465" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F465"/>
-    </row>
-    <row r="466" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F466"/>
-    </row>
-    <row r="467" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F467"/>
-    </row>
-    <row r="468" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F468"/>
-    </row>
-    <row r="469" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F469"/>
-    </row>
-    <row r="470" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F470"/>
-    </row>
-    <row r="471" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F471"/>
-    </row>
-    <row r="472" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F472"/>
-    </row>
-    <row r="473" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F473"/>
-    </row>
-    <row r="474" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F474"/>
-    </row>
-    <row r="475" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F475"/>
-    </row>
-    <row r="476" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F476"/>
-    </row>
-    <row r="477" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F477"/>
-    </row>
-    <row r="478" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F478"/>
-    </row>
-    <row r="479" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F479"/>
-    </row>
-    <row r="480" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F480"/>
-    </row>
-    <row r="481" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F481"/>
-    </row>
-    <row r="482" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F482"/>
-    </row>
-    <row r="483" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F483"/>
-    </row>
-    <row r="484" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F484"/>
-    </row>
-    <row r="485" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F485"/>
-    </row>
-    <row r="486" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F486"/>
-    </row>
-    <row r="487" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F487"/>
-    </row>
-    <row r="488" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F488"/>
-    </row>
-    <row r="489" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F489"/>
-    </row>
-    <row r="490" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F490"/>
-    </row>
-    <row r="491" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F491"/>
-    </row>
-    <row r="492" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F492"/>
-    </row>
-    <row r="493" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F493"/>
-    </row>
-    <row r="494" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F494"/>
-    </row>
-    <row r="495" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F495"/>
-    </row>
-    <row r="496" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F496"/>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410"/>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412"/>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413"/>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414"/>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416"/>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421"/>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422"/>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423"/>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424"/>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425"/>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426"/>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427"/>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428"/>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430"/>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431"/>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432"/>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433"/>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434"/>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435"/>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437"/>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438"/>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440"/>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441"/>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442"/>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443"/>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444"/>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445"/>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446"/>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448"/>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449"/>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450"/>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451"/>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452"/>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453"/>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454"/>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456"/>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457"/>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458"/>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459"/>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460"/>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462"/>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463"/>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464"/>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465"/>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466"/>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467"/>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469"/>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470"/>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471"/>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472"/>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473"/>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474"/>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475"/>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476"/>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477"/>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478"/>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479"/>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481"/>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483"/>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484"/>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485"/>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486"/>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487"/>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488"/>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489"/>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490"/>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491"/>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492"/>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493"/>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494"/>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495"/>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
